--- a/pedidos/030_ppt_espol/Estructura.xlsx
+++ b/pedidos/030_ppt_espol/Estructura.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaibor\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\marco_administracion\pedidos\030_ppt_espol\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -496,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
